--- a/beta_bruteforce_experiments.xlsx
+++ b/beta_bruteforce_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arc\AppData\Local\Temp\scp49445\home\arc\Desktop\supy-res-imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3340341-B0B0-46EF-AA2A-6BC09FD5E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF5AA6-E152-46BB-AD3E-51EAA2BFA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
